--- a/app/Licenciatura_em_Engenharia_Informatica.xlsx
+++ b/app/Licenciatura_em_Engenharia_Informatica.xlsx
@@ -25,19 +25,17 @@
     <sheet name="20151837" sheetId="15" r:id="rId18"/>
     <sheet name="20151829" sheetId="16" r:id="rId19"/>
     <sheet name="20151832" sheetId="17" r:id="rId20"/>
-    <sheet name="20154433" sheetId="18" r:id="rId21"/>
-    <sheet name="20151818" sheetId="19" r:id="rId22"/>
-    <sheet name="20151817" sheetId="20" r:id="rId23"/>
-    <sheet name="20151835" sheetId="21" r:id="rId24"/>
-    <sheet name="20151830" sheetId="22" r:id="rId25"/>
-    <sheet name="20151816" sheetId="23" r:id="rId26"/>
-    <sheet name="20151822" sheetId="24" r:id="rId27"/>
-    <sheet name="20151823" sheetId="25" r:id="rId28"/>
-    <sheet name="20154434" sheetId="26" r:id="rId29"/>
-    <sheet name="20151831" sheetId="27" r:id="rId30"/>
-    <sheet name="20151815" sheetId="28" r:id="rId31"/>
-    <sheet name="Sheet2" sheetId="29" r:id="rId32"/>
-    <sheet name="Sheet3" sheetId="30" r:id="rId33"/>
+    <sheet name="20151818" sheetId="18" r:id="rId21"/>
+    <sheet name="20151817" sheetId="19" r:id="rId22"/>
+    <sheet name="20151835" sheetId="20" r:id="rId23"/>
+    <sheet name="20151830" sheetId="21" r:id="rId24"/>
+    <sheet name="20151816" sheetId="22" r:id="rId25"/>
+    <sheet name="20151822" sheetId="23" r:id="rId26"/>
+    <sheet name="20151823" sheetId="24" r:id="rId27"/>
+    <sheet name="20151831" sheetId="25" r:id="rId28"/>
+    <sheet name="20151815" sheetId="26" r:id="rId29"/>
+    <sheet name="Sheet2" sheetId="27" r:id="rId30"/>
+    <sheet name="Sheet3" sheetId="28" r:id="rId31"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -194,9 +192,6 @@
     <t>Nassilina Issais Tsana</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -233,9 +228,6 @@
     <t>Nilda Ribeiro Tivane</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110201685270Q</t>
   </si>
   <si>
@@ -260,9 +252,6 @@
     <t>Pascoa AndÊs Vijarona</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110104417458F</t>
   </si>
   <si>
@@ -287,9 +276,6 @@
     <t xml:space="preserve">Ana Paula Guente </t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>+258827662778</t>
   </si>
   <si>
@@ -380,9 +366,6 @@
     <t>Lina JoÃo Alfaica</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>+258824920290</t>
   </si>
   <si>
@@ -404,9 +387,6 @@
     <t>Gertrudes Joao Matsimbe</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110100751974N</t>
   </si>
   <si>
@@ -455,9 +435,6 @@
     <t>Bonita A.c.jose</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110501788289B</t>
   </si>
   <si>
@@ -506,9 +483,6 @@
     <t>Felismina Mingo</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110102474663N</t>
   </si>
   <si>
@@ -533,9 +507,6 @@
     <t>Maria Aventura Fulane</t>
   </si>
   <si>
-    <t>Distrito de Bilene</t>
-  </si>
-  <si>
     <t>090200581812B</t>
   </si>
   <si>
@@ -593,205 +564,196 @@
     <t>Escola Secundaria Quisse Mavota</t>
   </si>
   <si>
-    <t>Mahumane</t>
-  </si>
-  <si>
-    <t>Marcos Raul</t>
+    <t>Mahanjane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erick Paulo Samuel </t>
+  </si>
+  <si>
+    <t>1997-04-18</t>
+  </si>
+  <si>
+    <t>Samuel EstevÃo Mahanjane</t>
+  </si>
+  <si>
+    <t>Alminda Rossina Matimbe</t>
+  </si>
+  <si>
+    <t>110103990400B</t>
+  </si>
+  <si>
+    <t>+258829561510</t>
+  </si>
+  <si>
+    <t>Colegio Kitabu</t>
+  </si>
+  <si>
+    <t>Machava</t>
+  </si>
+  <si>
+    <t>Victorino Euclides Fortunato Alexandre</t>
+  </si>
+  <si>
+    <t>1992-02-11</t>
+  </si>
+  <si>
+    <t>Alberto JÚnior F. Machava</t>
+  </si>
+  <si>
+    <t>MarÍlia EmÍlia Machava</t>
+  </si>
+  <si>
+    <t>Cartao de Eleitor</t>
+  </si>
+  <si>
+    <t>10423069/1</t>
+  </si>
+  <si>
+    <t>+258823964083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felicia Filipe </t>
+  </si>
+  <si>
+    <t>1995-03-22</t>
+  </si>
+  <si>
+    <t>Filipe Francisco Machava</t>
+  </si>
+  <si>
+    <t>Zelia Antonio Come</t>
+  </si>
+  <si>
+    <t>Feminino</t>
+  </si>
+  <si>
+    <t>110200572907M</t>
+  </si>
+  <si>
+    <t>+258849161053</t>
+  </si>
+  <si>
+    <t>Escola Secundaria da Lhanguene</t>
+  </si>
+  <si>
+    <t>Macamo</t>
+  </si>
+  <si>
+    <t>Messias</t>
+  </si>
+  <si>
+    <t>1997-08-20</t>
+  </si>
+  <si>
+    <t>Octavio Macamo</t>
+  </si>
+  <si>
+    <t>Isaura Carla Baloi</t>
+  </si>
+  <si>
+    <t>110501390935N</t>
+  </si>
+  <si>
+    <t>+258822776162</t>
+  </si>
+  <si>
+    <t>Escola Anglicana S.Cipriano</t>
+  </si>
+  <si>
+    <t>Infulo</t>
+  </si>
+  <si>
+    <t>Ivo Afonso</t>
+  </si>
+  <si>
+    <t>1994-05-20</t>
+  </si>
+  <si>
+    <t>Afonso Antonio Infulo</t>
+  </si>
+  <si>
+    <t>Lina Elias Sequice</t>
+  </si>
+  <si>
+    <t>080100856072S</t>
+  </si>
+  <si>
+    <t>+258847777486</t>
+  </si>
+  <si>
+    <t>Escola Secundaria Joaquim Chissano</t>
+  </si>
+  <si>
+    <t>Elias</t>
+  </si>
+  <si>
+    <t>Richaldo Do Lito</t>
+  </si>
+  <si>
+    <t>1996-07-14</t>
+  </si>
+  <si>
+    <t>Sandra Fernando Uanhane</t>
+  </si>
+  <si>
+    <t>Elias Ricardo Enoque</t>
+  </si>
+  <si>
+    <t>110500619526I</t>
+  </si>
+  <si>
+    <t>+258845544938</t>
+  </si>
+  <si>
+    <t>Cumbe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joaquim AndrÉ </t>
+  </si>
+  <si>
+    <t>1994-01-11</t>
+  </si>
+  <si>
+    <t>AndrÉ Joaquim Cumbe</t>
+  </si>
+  <si>
+    <t>AdÉlia AndrÉ Vilanculos</t>
+  </si>
+  <si>
+    <t>110300433914B</t>
+  </si>
+  <si>
+    <t>+258822886887</t>
+  </si>
+  <si>
+    <t>Chipupure</t>
+  </si>
+  <si>
+    <t>Sonisio Abilio</t>
+  </si>
+  <si>
+    <t>1992-01-28</t>
+  </si>
+  <si>
+    <t>Abilio Chipupure</t>
+  </si>
+  <si>
+    <t>Marieta Jossai</t>
+  </si>
+  <si>
+    <t>110300516576J</t>
+  </si>
+  <si>
+    <t>+258843611681</t>
+  </si>
+  <si>
+    <t>Boca</t>
+  </si>
+  <si>
+    <t>Alberto Marcelo</t>
   </si>
   <si>
     <t>+</t>
-  </si>
-  <si>
-    <t>Mahanjane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erick Paulo Samuel </t>
-  </si>
-  <si>
-    <t>1997-04-18</t>
-  </si>
-  <si>
-    <t>Samuel EstevÃo Mahanjane</t>
-  </si>
-  <si>
-    <t>Alminda Rossina Matimbe</t>
-  </si>
-  <si>
-    <t>110103990400B</t>
-  </si>
-  <si>
-    <t>+258829561510</t>
-  </si>
-  <si>
-    <t>Colegio Kitabu</t>
-  </si>
-  <si>
-    <t>Machava</t>
-  </si>
-  <si>
-    <t>Victorino Euclides Fortunato Alexandre</t>
-  </si>
-  <si>
-    <t>1992-02-11</t>
-  </si>
-  <si>
-    <t>Alberto JÚnior F. Machava</t>
-  </si>
-  <si>
-    <t>MarÍlia EmÍlia Machava</t>
-  </si>
-  <si>
-    <t>Cartao de Eleitor</t>
-  </si>
-  <si>
-    <t>10423069/1</t>
-  </si>
-  <si>
-    <t>+258823964083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felicia Filipe </t>
-  </si>
-  <si>
-    <t>1995-03-22</t>
-  </si>
-  <si>
-    <t>Filipe Francisco Machava</t>
-  </si>
-  <si>
-    <t>Zelia Antonio Come</t>
-  </si>
-  <si>
-    <t>Feminino</t>
-  </si>
-  <si>
-    <t>110200572907M</t>
-  </si>
-  <si>
-    <t>+258849161053</t>
-  </si>
-  <si>
-    <t>Escola Secundaria da Lhanguene</t>
-  </si>
-  <si>
-    <t>Macamo</t>
-  </si>
-  <si>
-    <t>Messias</t>
-  </si>
-  <si>
-    <t>1997-08-20</t>
-  </si>
-  <si>
-    <t>Octavio Macamo</t>
-  </si>
-  <si>
-    <t>Isaura Carla Baloi</t>
-  </si>
-  <si>
-    <t>110501390935N</t>
-  </si>
-  <si>
-    <t>+258822776162</t>
-  </si>
-  <si>
-    <t>Escola Anglicana S.Cipriano</t>
-  </si>
-  <si>
-    <t>Infulo</t>
-  </si>
-  <si>
-    <t>Ivo Afonso</t>
-  </si>
-  <si>
-    <t>1994-05-20</t>
-  </si>
-  <si>
-    <t>Afonso Antonio Infulo</t>
-  </si>
-  <si>
-    <t>Lina Elias Sequice</t>
-  </si>
-  <si>
-    <t>080100856072S</t>
-  </si>
-  <si>
-    <t>+258847777486</t>
-  </si>
-  <si>
-    <t>Escola Secundaria Joaquim Chissano</t>
-  </si>
-  <si>
-    <t>Elias</t>
-  </si>
-  <si>
-    <t>Richaldo Do Lito</t>
-  </si>
-  <si>
-    <t>1996-07-14</t>
-  </si>
-  <si>
-    <t>Sandra Fernando Uanhane</t>
-  </si>
-  <si>
-    <t>Elias Ricardo Enoque</t>
-  </si>
-  <si>
-    <t>110500619526I</t>
-  </si>
-  <si>
-    <t>+258845544938</t>
-  </si>
-  <si>
-    <t>Cumbe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joaquim AndrÉ </t>
-  </si>
-  <si>
-    <t>1994-01-11</t>
-  </si>
-  <si>
-    <t>AndrÉ Joaquim Cumbe</t>
-  </si>
-  <si>
-    <t>AdÉlia AndrÉ Vilanculos</t>
-  </si>
-  <si>
-    <t>110300433914B</t>
-  </si>
-  <si>
-    <t>+258822886887</t>
-  </si>
-  <si>
-    <t>Eude Elias</t>
-  </si>
-  <si>
-    <t>Chipupure</t>
-  </si>
-  <si>
-    <t>Sonisio Abilio</t>
-  </si>
-  <si>
-    <t>1992-01-28</t>
-  </si>
-  <si>
-    <t>Abilio Chipupure</t>
-  </si>
-  <si>
-    <t>Marieta Jossai</t>
-  </si>
-  <si>
-    <t>110300516576J</t>
-  </si>
-  <si>
-    <t>+258843611681</t>
-  </si>
-  <si>
-    <t>Boca</t>
-  </si>
-  <si>
-    <t>Alberto Marcelo</t>
   </si>
 </sst>
 </file>
@@ -2051,7 +2013,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2067,7 +2029,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2083,7 +2045,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2099,7 +2061,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2115,7 +2077,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2130,9 +2092,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>119</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2140,7 +2100,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2151,7 +2111,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2160,7 +2120,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2172,7 +2132,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2180,7 +2140,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2276,7 +2236,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2319,7 +2279,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2646,7 +2606,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2662,7 +2622,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2678,7 +2638,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2694,7 +2654,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2710,7 +2670,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2725,9 +2685,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2735,7 +2693,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2746,7 +2704,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2755,7 +2713,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2767,7 +2725,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2775,7 +2733,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2871,7 +2829,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2914,7 +2872,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3241,7 +3199,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3257,7 +3215,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3273,7 +3231,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3289,7 +3247,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3305,7 +3263,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3320,9 +3278,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>136</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3330,7 +3286,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3341,7 +3297,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3350,7 +3306,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3362,7 +3318,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3370,7 +3326,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3466,7 +3422,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3509,7 +3465,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3836,7 +3792,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3852,7 +3808,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3868,7 +3824,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3884,7 +3840,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3900,7 +3856,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3915,9 +3871,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>119</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3925,7 +3879,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3936,7 +3890,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3945,7 +3899,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3957,7 +3911,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3965,7 +3919,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4061,7 +4015,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4104,7 +4058,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4431,7 +4385,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4447,7 +4401,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4463,7 +4417,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4479,7 +4433,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4495,7 +4449,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4510,9 +4464,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>153</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4520,7 +4472,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4531,7 +4483,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4540,7 +4492,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4552,7 +4504,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4560,7 +4512,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4656,7 +4608,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4699,7 +4651,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5026,7 +4978,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5042,7 +4994,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5058,7 +5010,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5074,7 +5026,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5090,7 +5042,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5105,9 +5057,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>162</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5115,7 +5065,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5126,7 +5076,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5135,7 +5085,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5147,7 +5097,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5155,7 +5105,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5251,7 +5201,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5294,7 +5244,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5621,7 +5571,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5637,7 +5587,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5653,7 +5603,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5669,7 +5619,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5685,7 +5635,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5700,9 +5650,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5710,7 +5658,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5721,7 +5669,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5730,7 +5678,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5742,7 +5690,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5750,7 +5698,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5846,7 +5794,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5889,7 +5837,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6216,7 +6164,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6232,7 +6180,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6248,7 +6196,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6264,7 +6212,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6280,7 +6228,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6295,9 +6243,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6305,7 +6251,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6316,7 +6262,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6325,7 +6271,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6337,7 +6283,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6345,7 +6291,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6441,7 +6387,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6484,7 +6430,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6735,7 +6681,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -6785,7 +6733,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154433</v>
+        <v>20151818</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6809,7 +6757,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6825,7 +6773,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6840,7 +6788,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>175</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -6854,7 +6804,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>176</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -6868,7 +6820,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>177</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -6889,7 +6843,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -6898,14 +6854,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -6915,13 +6875,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>178</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -7016,7 +6980,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7042,7 +7006,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -7056,7 +7022,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>180</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -7358,7 +7326,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151818</v>
+        <v>20151817</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7382,7 +7350,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7398,7 +7366,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7414,7 +7382,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7430,7 +7398,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7446,7 +7414,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7461,9 +7429,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7471,7 +7437,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7482,7 +7448,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7491,7 +7457,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7503,7 +7469,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7511,7 +7477,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7607,7 +7573,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7634,7 +7600,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7650,7 +7616,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8056,9 +8022,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8066,7 +8030,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8077,7 +8041,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8086,7 +8050,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8098,7 +8062,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8106,7 +8070,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8202,7 +8166,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8245,7 +8209,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8548,7 +8512,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151817</v>
+        <v>20151835</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8572,7 +8536,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8588,7 +8552,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8604,7 +8568,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8620,7 +8584,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8636,7 +8600,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8651,9 +8615,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>153</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8661,7 +8623,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8672,7 +8634,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8681,7 +8643,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8693,7 +8655,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>198</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8701,7 +8663,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8797,7 +8759,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8824,7 +8786,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -8840,7 +8802,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9143,7 +9105,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151835</v>
+        <v>20151830</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9167,7 +9129,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9183,7 +9145,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9199,7 +9161,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9215,7 +9177,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9231,7 +9193,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9246,9 +9208,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>136</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9256,7 +9216,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>205</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9267,7 +9227,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9276,7 +9236,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9288,7 +9248,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9296,7 +9256,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9392,7 +9352,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9419,7 +9379,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9435,7 +9395,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9738,7 +9698,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151830</v>
+        <v>20151816</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9762,7 +9722,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9778,7 +9738,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9794,7 +9754,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9810,7 +9770,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9826,7 +9786,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9841,9 +9801,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9851,7 +9809,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9862,7 +9820,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9871,7 +9829,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9883,7 +9841,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9891,7 +9849,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9987,7 +9945,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10014,7 +9972,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10030,7 +9988,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10333,7 +10291,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151816</v>
+        <v>20151822</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10357,7 +10315,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10373,7 +10331,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10389,7 +10347,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10405,7 +10363,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10421,7 +10379,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10436,9 +10394,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>136</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10446,7 +10402,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10457,7 +10413,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10466,7 +10422,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10478,7 +10434,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10486,7 +10442,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10582,7 +10538,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10609,7 +10565,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10625,7 +10581,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10928,7 +10884,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151822</v>
+        <v>20151823</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10952,7 +10908,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10968,7 +10924,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10984,7 +10940,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11000,7 +10956,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11016,7 +10972,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11031,9 +10987,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>153</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11041,7 +10995,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11052,7 +11006,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11061,7 +11015,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11073,7 +11027,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11081,7 +11035,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11177,7 +11131,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11220,7 +11174,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11523,7 +11477,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151823</v>
+        <v>20151831</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11547,7 +11501,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11563,7 +11517,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11579,7 +11533,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11595,7 +11549,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11611,7 +11565,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11626,9 +11580,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11636,7 +11588,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11647,7 +11599,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11656,7 +11608,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11668,7 +11620,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11676,7 +11628,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11772,7 +11724,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11799,7 +11751,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11815,7 +11767,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12066,7 +12018,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -12116,7 +12070,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154434</v>
+        <v>20151815</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12140,7 +12094,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12156,7 +12110,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12347,7 +12301,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12589,6 +12543,62 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
@@ -12689,7 +12699,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151831</v>
+        <v>20151839</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12713,7 +12723,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>240</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12729,7 +12739,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>241</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12745,7 +12755,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>242</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12761,7 +12771,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>243</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12777,7 +12787,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>244</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12792,9 +12802,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12802,7 +12810,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12813,7 +12821,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12822,7 +12830,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12834,7 +12842,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12842,7 +12850,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>245</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12938,7 +12946,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>246</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12981,7 +12989,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13179,1230 +13187,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151815</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151839</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2011</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
@@ -14532,7 +13316,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14548,7 +13332,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14564,7 +13348,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14580,7 +13364,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14596,7 +13380,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14611,9 +13395,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14621,7 +13403,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14632,7 +13414,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14641,7 +13423,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14653,7 +13435,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14661,7 +13443,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14757,7 +13539,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14800,7 +13582,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15127,7 +13909,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15143,7 +13925,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15159,7 +13941,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15175,7 +13957,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15191,7 +13973,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15206,9 +13988,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15216,7 +13996,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15227,7 +14007,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15236,7 +14016,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15248,7 +14028,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15352,7 +14132,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15395,7 +14175,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15722,7 +14502,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15738,7 +14518,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15754,7 +14534,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15770,7 +14550,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15786,7 +14566,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15801,9 +14581,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15811,7 +14589,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15822,7 +14600,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15831,7 +14609,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15843,7 +14621,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15851,7 +14629,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15947,7 +14725,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15990,7 +14768,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16317,7 +15095,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16333,7 +15111,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16349,7 +15127,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16365,7 +15143,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16381,7 +15159,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16396,9 +15174,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16406,7 +15182,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16417,7 +15193,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16426,7 +15202,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16438,7 +15214,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16446,7 +15222,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16542,7 +15318,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16585,7 +15361,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16912,7 +15688,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16928,7 +15704,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16944,7 +15720,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16960,7 +15736,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16976,7 +15752,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16991,9 +15767,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17001,7 +15775,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17012,7 +15786,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17021,7 +15795,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17033,7 +15807,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17041,7 +15815,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17137,7 +15911,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17180,7 +15954,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17507,7 +16281,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17523,7 +16297,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17539,7 +16313,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17555,7 +16329,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17571,7 +16345,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17586,9 +16360,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>111</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17596,7 +16368,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17607,7 +16379,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17616,7 +16388,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17628,7 +16400,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17732,7 +16504,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17775,7 +16547,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
